--- a/PROYECTO MR/IPS/Finalizados/IPS - [MR 2.0] - [Obtener Orden de Pago].xlsx
+++ b/PROYECTO MR/IPS/Finalizados/IPS - [MR 2.0] - [Obtener Orden de Pago].xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VUCE\DocumentoVuce\PROYECTO MR\IPS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VUCE\DocumentoVuce\PROYECTO MR\IPS\Finalizados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F88A753C-85B4-4486-BDD1-716A8347CB24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F59C0801-A813-4BA1-AEC5-553D510E0DB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="670" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -897,6 +897,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -910,15 +919,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6911,8 +6911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:H1004"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6928,16 +6928,16 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E3" s="40" t="s">
+      <c r="E3" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
     </row>
     <row r="4" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
     </row>
     <row r="8" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="1" t="s">
@@ -6946,10 +6946,10 @@
       <c r="D8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="43" t="s">
+      <c r="E8" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="43"/>
+      <c r="F8" s="46"/>
       <c r="G8" s="1" t="s">
         <v>22</v>
       </c>
@@ -6961,10 +6961,10 @@
       <c r="D9" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="41" t="s">
+      <c r="E9" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="F9" s="41"/>
+      <c r="F9" s="44"/>
       <c r="G9" s="31" t="s">
         <v>46</v>
       </c>
@@ -6972,29 +6972,29 @@
     <row r="10" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="29"/>
       <c r="D10" s="30"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
       <c r="G10" s="32"/>
     </row>
     <row r="11" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="29"/>
       <c r="D11" s="30"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
       <c r="G11" s="32"/>
     </row>
     <row r="12" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" s="2"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
       <c r="G12" s="4"/>
     </row>
     <row r="13" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" s="2"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
       <c r="G13" s="4"/>
     </row>
     <row r="16" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7003,59 +7003,59 @@
       </c>
     </row>
     <row r="17" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="46" t="s">
+      <c r="B17" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="46"/>
+      <c r="C17" s="41"/>
       <c r="D17" s="18" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="44" t="s">
+      <c r="B18" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="45"/>
+      <c r="C18" s="40"/>
       <c r="D18" s="19">
         <f>COUNTIF($G:$G,"CONFORME")</f>
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="44" t="s">
+      <c r="B19" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="45"/>
+      <c r="C19" s="40"/>
       <c r="D19" s="19">
         <f>COUNTIF($G:$G,"NO CONFORME")</f>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="44" t="s">
+      <c r="B20" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="45"/>
+      <c r="C20" s="40"/>
       <c r="D20" s="19">
         <f>COUNTIF($G:$G,"NO APLICA")</f>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="44" t="s">
+      <c r="B21" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="45"/>
+      <c r="C21" s="40"/>
       <c r="D21" s="19">
         <f>COUNTIF($G:$G,"PENDIENTE")</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="44" t="s">
+      <c r="B22" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="45"/>
+      <c r="C22" s="40"/>
       <c r="D22" s="19">
         <f>SUM(D18:F21)</f>
         <v>9</v>
@@ -7233,7 +7233,7 @@
         <v>32</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H32" s="9" t="s">
         <v>80</v>
@@ -7256,7 +7256,7 @@
         <v>32</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H33" s="9" t="s">
         <v>80</v>
@@ -7279,7 +7279,7 @@
         <v>32</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H34" s="9" t="s">
         <v>80</v>
@@ -8258,12 +8258,6 @@
   </sheetData>
   <autoFilter ref="A25:H34" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="13">
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="E3:G4"/>
@@ -8271,6 +8265,12 @@
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="E10:F10"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <hyperlinks>
@@ -8934,27 +8934,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="328335c8-173a-4c26-85d0-3846c13a1e29">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="9f8772a7-fa38-4be3-8f6b-d40e0755735f" xsi:nil="true"/>
-    <Fehca xmlns="328335c8-173a-4c26-85d0-3846c13a1e29" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CBC7F57751F3F343A56393DD202D817F" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="39c6f7f9cec71677675bb2863d384c02">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9f8772a7-fa38-4be3-8f6b-d40e0755735f" xmlns:ns3="328335c8-173a-4c26-85d0-3846c13a1e29" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b0daab8a5ec0935cc933c650856a513a" ns2:_="" ns3:_="">
     <xsd:import namespace="9f8772a7-fa38-4be3-8f6b-d40e0755735f"/>
@@ -9215,10 +9194,42 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="328335c8-173a-4c26-85d0-3846c13a1e29">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="9f8772a7-fa38-4be3-8f6b-d40e0755735f" xsi:nil="true"/>
+    <Fehca xmlns="328335c8-173a-4c26-85d0-3846c13a1e29" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9215699A-FD2A-4345-A19D-0C964345EF08}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81999892-D045-4787-9EDB-20EA2EC41316}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="9f8772a7-fa38-4be3-8f6b-d40e0755735f"/>
+    <ds:schemaRef ds:uri="328335c8-173a-4c26-85d0-3846c13a1e29"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -9235,20 +9246,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81999892-D045-4787-9EDB-20EA2EC41316}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9215699A-FD2A-4345-A19D-0C964345EF08}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="9f8772a7-fa38-4be3-8f6b-d40e0755735f"/>
-    <ds:schemaRef ds:uri="328335c8-173a-4c26-85d0-3846c13a1e29"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>